--- a/download_file/마음손거래내역_8월테스트.xlsx
+++ b/download_file/마음손거래내역_8월테스트.xlsx
@@ -8,18 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ysk\Python\python_auto_work\download_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D9CDDC-0574-4A43-8C9A-5FEE34B79C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0302BD47-4121-4940-A49B-4EA5DD86B9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="60" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39015" yWindow="2280" windowWidth="20535" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="마음손거래내역_20230804025611" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">마음손거래내역_20230804025611!$A$1:$M$76</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1562,7 +1576,7 @@
   <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD76"/>
+      <selection activeCell="A2" sqref="A2:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1580,7 +1594,7 @@
     <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4550,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD76"/>
+    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7530,7 +7544,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M76" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
